--- a/excel/Machinery_Part/Section12.xlsx
+++ b/excel/Machinery_Part/Section12.xlsx
@@ -77527,7 +77527,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>(+)exhaust &amp; (+)gas &amp; (+)flow &amp; (-)12.12 &amp; (-)INCINERATOR</t>
+          <t>(+)△2 &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -77572,277 +77572,277 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
+          <t>(+)85 &amp; (+)% &amp; (+)△4 &amp; (-)12.12 &amp; (-)INCINERATOR &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>(+)85 &amp; (+)% &amp; (+)△2 &amp; (-)12.12 &amp; (-)INCINERATOR &amp; (-).</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AW6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AY6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
+      <c r="AZ6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
+      <c r="BA6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
+      <c r="BB6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr">
+      <c r="BC6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
+      <c r="BD6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr">
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>(+)85 &amp; (+)% &amp; (+)△2 &amp; (-)12.12 &amp; (-)INCINERATOR &amp; (-).</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
+      <c r="BG6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BH6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
+      <c r="BI6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BG6" t="inlineStr">
+      <c r="BJ6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BH6" t="inlineStr">
+      <c r="BK6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BI6" t="inlineStr">
+      <c r="BL6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BJ6" t="inlineStr">
+      <c r="BM6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BK6" t="inlineStr">
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BL6" t="inlineStr">
+      <c r="BP6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BM6" t="inlineStr">
+      <c r="BQ6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
+      <c r="BR6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BP6" t="inlineStr">
+      <c r="BS6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="BT6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr">
+      <c r="BU6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BS6" t="inlineStr">
+      <c r="BV6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BT6" t="inlineStr">
+      <c r="BW6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BU6" t="inlineStr">
+      <c r="BX6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BV6" t="inlineStr">
+      <c r="BY6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BW6" t="inlineStr">
+      <c r="BZ6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BX6" t="inlineStr">
+      <c r="CA6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BY6" t="inlineStr">
+      <c r="CB6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="BZ6" t="inlineStr">
+      <c r="CC6" t="inlineStr">
         <is>
           <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
         </is>
       </c>
-      <c r="CA6" t="inlineStr">
-        <is>
-          <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
-        </is>
-      </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
-        </is>
-      </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>(+)12.10 &amp; (+)NAME &amp; (+)PLATE &amp; (+)AND &amp; (+)CAUTION &amp; (+)PLATE &amp; (-)12.12 &amp; (-)INCINERATOR</t>
+          <t>(+)85△1 &amp; (-)12.12 &amp; (-)INCINERATOR &amp; (-).</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
